--- a/ems/document/维修任务报表/XX项目机房设备汇总表.xlsx
+++ b/ems/document/维修任务报表/XX项目机房设备汇总表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="9705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>设备分类</t>
+  </si>
+  <si>
+    <t>网络交换机</t>
+  </si>
+  <si>
+    <t>PECLO矩阵</t>
+  </si>
+  <si>
+    <t>机柜</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>UPS电源</t>
+  </si>
+  <si>
+    <t>PECLO控制键盘</t>
+  </si>
+  <si>
+    <t>操作台</t>
+  </si>
+  <si>
+    <t>机房空调</t>
+  </si>
+  <si>
+    <t>17寸液晶监视器</t>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>控制电脑</t>
+  </si>
+  <si>
+    <t>联网光端机（利用二期）</t>
+  </si>
+  <si>
+    <t>视频光端机</t>
+  </si>
+  <si>
+    <t>数据复用管理器</t>
+  </si>
+  <si>
+    <t>码分配器</t>
+  </si>
+  <si>
+    <t>18插槽光端机箱</t>
+  </si>
+  <si>
+    <t>视频分配器</t>
+  </si>
+  <si>
+    <t>硬盘录像机</t>
+  </si>
+  <si>
+    <t>数字硬盘录像机</t>
+  </si>
+  <si>
+    <t>区域名称</t>
+  </si>
+  <si>
+    <t>LS-3600-52P-EI</t>
+  </si>
+  <si>
+    <t>LS-S5600-26C</t>
+  </si>
+  <si>
+    <t>S7510E</t>
+  </si>
+  <si>
+    <t>扩展</t>
+  </si>
+  <si>
+    <t>图腾</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>科士达</t>
+  </si>
+  <si>
+    <t>CM9760-KBD</t>
+  </si>
+  <si>
+    <t>美的</t>
+  </si>
+  <si>
+    <t>创维</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>中威</t>
+  </si>
+  <si>
+    <t>1路</t>
+  </si>
+  <si>
+    <t>2路</t>
+  </si>
+  <si>
+    <t>8路</t>
+  </si>
+  <si>
+    <t>4路</t>
+  </si>
+  <si>
+    <t>16路</t>
+  </si>
+  <si>
+    <t>PECLO</t>
+  </si>
+  <si>
+    <t>上海安防</t>
+  </si>
+  <si>
+    <t>海康（8008HF）</t>
+  </si>
+  <si>
+    <t>海康（8016HF）</t>
+  </si>
+  <si>
+    <t>水利局项目</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">鄞州XX项目机房设备汇总表           </t>
     </r>
     <r>
@@ -32,158 +161,22 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                             </t>
     </r>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>设备分类</t>
-  </si>
-  <si>
-    <t>网络交换机</t>
-  </si>
-  <si>
-    <t>PECLO矩阵</t>
-  </si>
-  <si>
-    <t>机柜</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>UPS电源</t>
-  </si>
-  <si>
-    <t>PECLO控制键盘</t>
-  </si>
-  <si>
-    <t>操作台</t>
-  </si>
-  <si>
-    <t>机房空调</t>
-  </si>
-  <si>
-    <t>17寸液晶监视器</t>
-  </si>
-  <si>
-    <t>笔记本电脑</t>
-  </si>
-  <si>
-    <t>控制电脑</t>
-  </si>
-  <si>
-    <t>联网光端机（利用二期）</t>
-  </si>
-  <si>
-    <t>视频光端机</t>
-  </si>
-  <si>
-    <t>数据复用管理器</t>
-  </si>
-  <si>
-    <t>码分配器</t>
-  </si>
-  <si>
-    <t>18插槽光端机箱</t>
-  </si>
-  <si>
-    <t>视频分配器</t>
-  </si>
-  <si>
-    <t>硬盘录像机</t>
-  </si>
-  <si>
-    <t>数字硬盘录像机</t>
-  </si>
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>LS-3600-52P-EI</t>
-  </si>
-  <si>
-    <t>LS-S5600-26C</t>
-  </si>
-  <si>
-    <t>S7510E</t>
-  </si>
-  <si>
-    <t>扩展</t>
-  </si>
-  <si>
-    <t>图腾</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>科士达</t>
-  </si>
-  <si>
-    <t>CM9760-KBD</t>
-  </si>
-  <si>
-    <t>美的</t>
-  </si>
-  <si>
-    <t>创维</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>中威</t>
-  </si>
-  <si>
-    <t>1路</t>
-  </si>
-  <si>
-    <t>2路</t>
-  </si>
-  <si>
-    <t>8路</t>
-  </si>
-  <si>
-    <t>4路</t>
-  </si>
-  <si>
-    <t>16路</t>
-  </si>
-  <si>
-    <t>PECLO</t>
-  </si>
-  <si>
-    <t>上海安防</t>
-  </si>
-  <si>
-    <t>海康（8008HF）</t>
-  </si>
-  <si>
-    <t>海康（8016HF）</t>
-  </si>
-  <si>
-    <t>水利局项目</t>
-  </si>
-  <si>
-    <t>合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:鄞州XX项目机房设备汇总表 --因为暂时不涉及到机房，所以做不到这个</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -194,27 +187,26 @@
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -567,30 +559,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,101 +634,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="图片 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1609725" y="85725"/>
+          <a:ext cx="733425" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,6 +1046,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1024,15 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AB12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
@@ -1062,547 +1116,545 @@
     <col min="28" max="28" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75.75" customHeight="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="28"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" ht="65.25" customHeight="1" spans="1:28">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
+        <v>8</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
+        <v>9</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="8"/>
     </row>
-    <row r="3" ht="48.75" spans="1:28">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>43</v>
-      </c>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14">
-        <v>2</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
-        <v>4</v>
-      </c>
-      <c r="I4" s="14">
-        <v>8</v>
-      </c>
-      <c r="J4" s="14">
-        <v>1</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
-        <v>3</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14">
-        <v>8</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
-        <v>9</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="14"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="16">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:28">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.0388888888888889" right="0.0388888888888889" top="0.0388888888888889" bottom="0.0388888888888889" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="3.8888888888888903E-2" right="3.8888888888888903E-2" top="3.8888888888888903E-2" bottom="3.8888888888888903E-2" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>